--- a/data/hotels_by_city/Miami/Miami_shard_533.xlsx
+++ b/data/hotels_by_city/Miami/Miami_shard_533.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,629 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="225">
+  <si>
+    <t>STR</t>
+  </si>
+  <si>
+    <t>reviewer_ID</t>
+  </si>
+  <si>
+    <t>reviewer_name</t>
+  </si>
+  <si>
+    <t>Review_ID</t>
+  </si>
+  <si>
+    <t>Date_of_scraping</t>
+  </si>
+  <si>
+    <t>ReviewURL</t>
+  </si>
+  <si>
+    <t>Tripadvisor_gcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_dcode</t>
+  </si>
+  <si>
+    <t>Tripadvisor_rcode</t>
+  </si>
+  <si>
+    <t>review_date</t>
+  </si>
+  <si>
+    <t>review_title</t>
+  </si>
+  <si>
+    <t>review_content</t>
+  </si>
+  <si>
+    <t>review_rating</t>
+  </si>
+  <si>
+    <t>trip_month</t>
+  </si>
+  <si>
+    <t>trip_purpose</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>rooms</t>
+  </si>
+  <si>
+    <t>Location</t>
+  </si>
+  <si>
+    <t>Cleanliness</t>
+  </si>
+  <si>
+    <t>Sleep Quality</t>
+  </si>
+  <si>
+    <t>Service</t>
+  </si>
+  <si>
+    <t>Picture(yes=1)</t>
+  </si>
+  <si>
+    <t>respondent</t>
+  </si>
+  <si>
+    <t>response_date</t>
+  </si>
+  <si>
+    <t>response_text</t>
+  </si>
+  <si>
+    <t>11/02/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r629512302-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>34454</t>
+  </si>
+  <si>
+    <t>226195</t>
+  </si>
+  <si>
+    <t>629512302</t>
+  </si>
+  <si>
+    <t>10/29/2018</t>
+  </si>
+  <si>
+    <t>Nice Place to Stay!</t>
+  </si>
+  <si>
+    <t>Room was clean and comfortable. Great staff all around! They were friendly and extremely inviting and helpful. Breakfast was okay, as the selection was minimal, but what was there was appetizing.  I will definitely stay again!</t>
+  </si>
+  <si>
+    <t>October 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r621415368-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>621415368</t>
+  </si>
+  <si>
+    <t>10/02/2018</t>
+  </si>
+  <si>
+    <t>Great hotel for a quick stay</t>
+  </si>
+  <si>
+    <t>Located in a quiet neighborhood, the Home2 Suites is a great choice for a quick stay in Pembroke Pines area. The room was quite big with nice bathroom, a confy bed and great decor. Breakfest was very satisfying, with plenty of choices. The parking lot was ok, but the pool was closed. I would recomend this hotel for everyone.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r619495408-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>619495408</t>
+  </si>
+  <si>
+    <t>09/25/2018</t>
+  </si>
+  <si>
+    <t>So disappointed</t>
+  </si>
+  <si>
+    <t>First of all, no advance communication that pool would be closed.  In February in Florida, this northerner was looking forward to pool usage.  When I expressed disappointment upon check-in, all I got was “yeah, it’s being worked on.”  No offer to relocate to a different Hilton property, no extra points for the stay, nada.  I remember when the Hilton chain was THE place to stay for customer service, but I’m finding more and more that I receive better service and customer recognition at competitors.</t>
+  </si>
+  <si>
+    <t>February 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r618492257-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>618492257</t>
+  </si>
+  <si>
+    <t>09/21/2018</t>
+  </si>
+  <si>
+    <t>Home2 Suites by Hilton Miramar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nancy at the front desk, took hospitality to a new level. She was very helpful after a long and frustrate travel day, she help to turn a bad day into a great day!  The sheets were probably the softest sheets ever in a hotel. </t>
+  </si>
+  <si>
+    <t>September 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r616784685-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>616784685</t>
+  </si>
+  <si>
+    <t>09/15/2018</t>
+  </si>
+  <si>
+    <t>NFL first game of the season. Go Dolphins!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">The hotel was very clean and the rooms was very comfortable. Front desk staff were very welcoming and helpful for my stay. I would definitely stay at this location again. Free breakfast was great and the lobby was very comfortable.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r614176334-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>614176334</t>
+  </si>
+  <si>
+    <t>09/05/2018</t>
+  </si>
+  <si>
+    <t>A Surprise in the Corner</t>
+  </si>
+  <si>
+    <t>Room wonderful, service great. Desk staff personable and helpful. Breakfast more than acceptable and PET FRIENDLY. Not a single negative and I am always very demanding when it comes to service. Overall great experience and recommend highly to any traveler.</t>
+  </si>
+  <si>
+    <t>August 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r612399977-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>612399977</t>
+  </si>
+  <si>
+    <t>08/30/2018</t>
+  </si>
+  <si>
+    <t>Home 2</t>
+  </si>
+  <si>
+    <t>Great hotel with clean amenities and friendly staff slightly hidden of the main road easy to miss.Great atmosphere and quiet area. Pool area small and workout room right of the main entrance, it  makes you feel watch by everyone.Good equipment.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r611207161-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>611207161</t>
+  </si>
+  <si>
+    <t>08/27/2018</t>
+  </si>
+  <si>
+    <t>Previously Wingate by Wyndham</t>
+  </si>
+  <si>
+    <t>Stayed here before when it was Wingate....the decor has been updated and looks better, but the new faux closet with a curtain - can that be changed to a real closet with a safe?Breakfast was not so great except for the fresh waffles and fruit - think fresh food from kitchen would be better than premade breakfast sandwiches, and also please get better blinds for the rooms vs. roller shades.Otherwise our 4 day stay was OK</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r606372468-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>606372468</t>
+  </si>
+  <si>
+    <t>08/14/2018</t>
+  </si>
+  <si>
+    <t>Relocation</t>
+  </si>
+  <si>
+    <t>Newly renovated Home2, with great beds! I loved the full-sized stainless steel appliances. Not like the smalls ones at the Hampton Inn. Great location right off of I-75 with tons of restaurants nearby. It was perfect for my two week stay!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r602643630-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>602643630</t>
+  </si>
+  <si>
+    <t>08/04/2018</t>
+  </si>
+  <si>
+    <t>AWESOME STAFF IS THE DIFFERENCE!</t>
+  </si>
+  <si>
+    <t>Yes, this Home 2 Suites is under construction and lacks access to important amenities like the pool, grills, etc.  However, the staff and GM (Danny) are 5 star.  They have treated us extremely special and worked through unique challenges to accommodate our 2 month stay as we wait for our new townhome to be completed/occupiable.  An example is that we have an Electric Vehicle (EV).  The hotel doesn’t yet have an EV charging station.  Danny worked over several days to clear a special parking spot and provide access to power to we could efffectively use our EV (thanks Danny!).  Additionally, the front desk staff is friendly and very responsive.  The cleaning staff actually cleans the rooms/hotel!  The entire team here deserves a  5 star rating even if the facilities are a 3!  The location is really good and it’s quiet with ample parking.  We have a dog and it’s easy to be here.  Today is 04 August and we are told the pool will be available mid August.  We are very thankful we picked this hotel.MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2018</t>
+  </si>
+  <si>
+    <t>Yes, this Home 2 Suites is under construction and lacks access to important amenities like the pool, grills, etc.  However, the staff and GM (Danny) are 5 star.  They have treated us extremely special and worked through unique challenges to accommodate our 2 month stay as we wait for our new townhome to be completed/occupiable.  An example is that we have an Electric Vehicle (EV).  The hotel doesn’t yet have an EV charging station.  Danny worked over several days to clear a special parking spot and provide access to power to we could efffectively use our EV (thanks Danny!).  Additionally, the front desk staff is friendly and very responsive.  The cleaning staff actually cleans the rooms/hotel!  The entire team here deserves a  5 star rating even if the facilities are a 3!  The location is really good and it’s quiet with ample parking.  We have a dog and it’s easy to be here.  Today is 04 August and we are told the pool will be available mid August.  We are very thankful we picked this hotel.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r601971795-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>601971795</t>
+  </si>
+  <si>
+    <t>08/01/2018</t>
+  </si>
+  <si>
+    <t>Make sure they actually have a room for you.</t>
+  </si>
+  <si>
+    <t>Horrible experience with this hotel, and I would personally not recommend making a reservation with them.
+I made my reservation on July 3rd, and prepaid for my stay on July 31st. It said that I could check-in from 3:00pm to midnight. I was eating dinner with my girlfriend when at 5:59pm I got a call from the hotel inquiring whether I was still coming in. I informed them that I was finishing up dinner, and would be checking in soon. The young lady on the phone said "Enjoy your dinner, and we will see you when you get here". At 6:25pm we arrive at the hotel, ready to check-in, and get cleaned up for an event after being at the beach. 
+When I got to the counter, the same young lady that called me less than 30 minutes earlier told me she did not have a room for me. She and a gentleman at the counter informed me that they overbooked. They said that they made a reservation for me at a Holiday Inn. Remember, I had already paid for the room in full more than 3 weeks prior. They printed out directions for the Holiday Inn and that was that. We had no time to be going and finding this hotel prior to our event, so we got cleaned up the best we could from the beach in the hotel lobby bathroom using a sink and bathroom stall. At...Horrible experience with this hotel, and I would personally not recommend making a reservation with them.I made my reservation on July 3rd, and prepaid for my stay on July 31st. It said that I could check-in from 3:00pm to midnight. I was eating dinner with my girlfriend when at 5:59pm I got a call from the hotel inquiring whether I was still coming in. I informed them that I was finishing up dinner, and would be checking in soon. The young lady on the phone said "Enjoy your dinner, and we will see you when you get here". At 6:25pm we arrive at the hotel, ready to check-in, and get cleaned up for an event after being at the beach. When I got to the counter, the same young lady that called me less than 30 minutes earlier told me she did not have a room for me. She and a gentleman at the counter informed me that they overbooked. They said that they made a reservation for me at a Holiday Inn. Remember, I had already paid for the room in full more than 3 weeks prior. They printed out directions for the Holiday Inn and that was that. We had no time to be going and finding this hotel prior to our event, so we got cleaned up the best we could from the beach in the hotel lobby bathroom using a sink and bathroom stall. At least on our way out they said to have a great day!Why did they not explain the situation to me when they called 26 minutes earlier? Instead they wasted my time and gas driving there. Seeing some of the other reviews, people said things are decent. I would never know because I never got to experience anything other than the front desk, and the lobby bathroom. I can highly recommend the Holiday Inn off of Sheridan to you though, they really know how to take care of a guest there. I guess my advice to you if you make a reservation here, is be very proactive and call numerous times to make sure that you have a room, because in a matter of minutes you may not.MoreShow less</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>Hassel A, Manager at Home2 Suites by Hilton Miramar Ft. Lauderdale, responded to this reviewResponded August 3, 2018</t>
+  </si>
+  <si>
+    <t>Responded August 3, 2018</t>
+  </si>
+  <si>
+    <t>Horrible experience with this hotel, and I would personally not recommend making a reservation with them.
+I made my reservation on July 3rd, and prepaid for my stay on July 31st. It said that I could check-in from 3:00pm to midnight. I was eating dinner with my girlfriend when at 5:59pm I got a call from the hotel inquiring whether I was still coming in. I informed them that I was finishing up dinner, and would be checking in soon. The young lady on the phone said "Enjoy your dinner, and we will see you when you get here". At 6:25pm we arrive at the hotel, ready to check-in, and get cleaned up for an event after being at the beach. 
+When I got to the counter, the same young lady that called me less than 30 minutes earlier told me she did not have a room for me. She and a gentleman at the counter informed me that they overbooked. They said that they made a reservation for me at a Holiday Inn. Remember, I had already paid for the room in full more than 3 weeks prior. They printed out directions for the Holiday Inn and that was that. We had no time to be going and finding this hotel prior to our event, so we got cleaned up the best we could from the beach in the hotel lobby bathroom using a sink and bathroom stall. At...Horrible experience with this hotel, and I would personally not recommend making a reservation with them.I made my reservation on July 3rd, and prepaid for my stay on July 31st. It said that I could check-in from 3:00pm to midnight. I was eating dinner with my girlfriend when at 5:59pm I got a call from the hotel inquiring whether I was still coming in. I informed them that I was finishing up dinner, and would be checking in soon. The young lady on the phone said "Enjoy your dinner, and we will see you when you get here". At 6:25pm we arrive at the hotel, ready to check-in, and get cleaned up for an event after being at the beach. When I got to the counter, the same young lady that called me less than 30 minutes earlier told me she did not have a room for me. She and a gentleman at the counter informed me that they overbooked. They said that they made a reservation for me at a Holiday Inn. Remember, I had already paid for the room in full more than 3 weeks prior. They printed out directions for the Holiday Inn and that was that. We had no time to be going and finding this hotel prior to our event, so we got cleaned up the best we could from the beach in the hotel lobby bathroom using a sink and bathroom stall. At least on our way out they said to have a great day!Why did they not explain the situation to me when they called 26 minutes earlier? Instead they wasted my time and gas driving there. Seeing some of the other reviews, people said things are decent. I would never know because I never got to experience anything other than the front desk, and the lobby bathroom. I can highly recommend the Holiday Inn off of Sheridan to you though, they really know how to take care of a guest there. I guess my advice to you if you make a reservation here, is be very proactive and call numerous times to make sure that you have a room, because in a matter of minutes you may not.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r593609718-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>593609718</t>
+  </si>
+  <si>
+    <t>07/06/2018</t>
+  </si>
+  <si>
+    <t>Great Place to Stay</t>
+  </si>
+  <si>
+    <t>I have stayed here twice as it is in a nice quiet and comfortable hotel in a safe area close to my family. The rooms are spacious, the beds are comfy and each time I have had a great experience. I typically arrive later in the evening around 8 PM or 9 PM as I live far away and have needed a place to stay when impromptu trips come up. Even at night the staff are professional, polite, and very helpful. During my last visit I was assisted by Nancy who went above and beyond with assisting me and my family. I love the amenities in the room and the breakfast sandwiches are great on the go! The only drawback is the pool has been closed and the halls have a strange odor due to the hotel being under construction. I will continue to stay here when in town!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2018</t>
+  </si>
+  <si>
+    <t>Hassel A, Manager at Home2 Suites by Hilton Miramar Ft. Lauderdale, responded to this reviewResponded July 25, 2018</t>
+  </si>
+  <si>
+    <t>Responded July 25, 2018</t>
+  </si>
+  <si>
+    <t>I have stayed here twice as it is in a nice quiet and comfortable hotel in a safe area close to my family. The rooms are spacious, the beds are comfy and each time I have had a great experience. I typically arrive later in the evening around 8 PM or 9 PM as I live far away and have needed a place to stay when impromptu trips come up. Even at night the staff are professional, polite, and very helpful. During my last visit I was assisted by Nancy who went above and beyond with assisting me and my family. I love the amenities in the room and the breakfast sandwiches are great on the go! The only drawback is the pool has been closed and the halls have a strange odor due to the hotel being under construction. I will continue to stay here when in town!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r591183723-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>591183723</t>
+  </si>
+  <si>
+    <t>06/27/2018</t>
+  </si>
+  <si>
+    <t>UNDER CONSTRUCTION!!!!</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel because of the Wyndham reputation... What a wake up call!!! It was horrible... The hotel is under construction and we were not informed... The bathroom in the room was dirty... The bed sheets were dirty as well.. I slept on a towel... Since I waa there for the night I did not ask for a change of room..... The poor girl at the front desk was there alone all night.We saw her the next morning at check out.. Breakfast was mediocre at best... Coffee was horrible... Synthetic eggs were tasteless... Bread variety was good... Nothing to write home about... Not with the price I paid for the night!! Let the buyer beware!!!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>We stayed in this hotel because of the Wyndham reputation... What a wake up call!!! It was horrible... The hotel is under construction and we were not informed... The bathroom in the room was dirty... The bed sheets were dirty as well.. I slept on a towel... Since I waa there for the night I did not ask for a change of room..... The poor girl at the front desk was there alone all night.We saw her the next morning at check out.. Breakfast was mediocre at best... Coffee was horrible... Synthetic eggs were tasteless... Bread variety was good... Nothing to write home about... Not with the price I paid for the night!! Let the buyer beware!!!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r587222189-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>587222189</t>
+  </si>
+  <si>
+    <t>06/13/2018</t>
+  </si>
+  <si>
+    <t>Weekend stay</t>
+  </si>
+  <si>
+    <t>The place was great just make sure when you make the reservations that it takes because online on the website cuz I made a reservation and when I got to the hotel they couldn't find it it cost me $100 more for the roomi</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r584163829-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>584163829</t>
+  </si>
+  <si>
+    <t>05/31/2018</t>
+  </si>
+  <si>
+    <t>Beautiful new decor, extremely clean and great staff</t>
+  </si>
+  <si>
+    <t xml:space="preserve">I have stayed at this beautiful new hotel on more than one occasion. The staff is extremely friendly and the accommodations are always clean. I appreciate the complimentary breakfast. I would like the hours to be extended but other than that all is great keep up the good work. </t>
+  </si>
+  <si>
+    <t>May 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r577756237-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>577756237</t>
+  </si>
+  <si>
+    <t>05/03/2018</t>
+  </si>
+  <si>
+    <t>Quiet and Comfortable</t>
+  </si>
+  <si>
+    <t>I'm a hotel snob.  I read reviews and I trust people's opinions on such.  The reviews of this hotel were spot on.  It is quiet.  It is clean.  The staff was more than pleasant during our stay.  The location is convenient to I-75, though for any light sleepers, request a room that does not face the highway or you will hear the traffic.  The bed was comfortable, the AC worked well, and there was ample space in the room.  As other reviews state, the breakfast does leave a bit (okay, more than a bit) to be desired, but it is not the worst breakfast I've ever experienced in a hotel.  I'd stay again if the price was right and I recommend it for anyone out there. MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2018</t>
+  </si>
+  <si>
+    <t>I'm a hotel snob.  I read reviews and I trust people's opinions on such.  The reviews of this hotel were spot on.  It is quiet.  It is clean.  The staff was more than pleasant during our stay.  The location is convenient to I-75, though for any light sleepers, request a room that does not face the highway or you will hear the traffic.  The bed was comfortable, the AC worked well, and there was ample space in the room.  As other reviews state, the breakfast does leave a bit (okay, more than a bit) to be desired, but it is not the worst breakfast I've ever experienced in a hotel.  I'd stay again if the price was right and I recommend it for anyone out there. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r575787003-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>575787003</t>
+  </si>
+  <si>
+    <t>04/26/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A great property </t>
+  </si>
+  <si>
+    <t xml:space="preserve">This is one of the nicest and eclectic properties I have stayed at within the Hilton brand. It is my first time at a Home2 Suites. Full size mini kitchen complete with refrigerator freezer, microwave , dishes and utensils. Bright lobby and breakfast area served daily. A 5 star property. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r569402825-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>569402825</t>
+  </si>
+  <si>
+    <t>03/28/2018</t>
+  </si>
+  <si>
+    <t>Weekend Business Trip</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights at this hotel. Pros: clean room, friendly staff, comfy bed, good parking, breakfast variety, large gym, easy check in, affordable nightly rate, full refrigerator and kitchen area with largest TV I’ve ever seen in a hotel room!Cons: under construction/renovations, pool closed, very thin walls (changed floors due to a large party celebrating and still had an active family next door with fussy children), located in a business park next to a TV station. No restaurants or stores within close walking distance. Small mix up at front desk when adding additional nights to our visit, had to take extra time to go back to desk and straighten out. Would stay at location again after renovations are completed and recommend top floor room for a quiet stay. MoreShow less</t>
+  </si>
+  <si>
+    <t>March 2018</t>
+  </si>
+  <si>
+    <t>Stayed 3 nights at this hotel. Pros: clean room, friendly staff, comfy bed, good parking, breakfast variety, large gym, easy check in, affordable nightly rate, full refrigerator and kitchen area with largest TV I’ve ever seen in a hotel room!Cons: under construction/renovations, pool closed, very thin walls (changed floors due to a large party celebrating and still had an active family next door with fussy children), located in a business park next to a TV station. No restaurants or stores within close walking distance. Small mix up at front desk when adding additional nights to our visit, had to take extra time to go back to desk and straighten out. Would stay at location again after renovations are completed and recommend top floor room for a quiet stay. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r568756787-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>568756787</t>
+  </si>
+  <si>
+    <t>03/25/2018</t>
+  </si>
+  <si>
+    <t>Very nice property!</t>
+  </si>
+  <si>
+    <t>We stayed at this property for two nights. It was convenient and affordable during a VERY busy weekend in Miami/Broward.  The property is being renovated, so it was a bit dusty, and our room’s deadbolt did not work properly (but the door was locked w/ the “chain” no problem).  We loved the kitchenette-style, comfy bed with soft linens, and homey amenities.  The staff was cheerful and helpful. Unfortunately, the pool was closed during our stay.  We will definitely choose Home 2 in the future if we can!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r566573478-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>566573478</t>
+  </si>
+  <si>
+    <t>03/14/2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">A very nice hotel </t>
+  </si>
+  <si>
+    <t>We stayed here for few days for spring break. There’s multiple options for pools. In and outdoor pools with hot tubs. It’s right in the water and so many things to do in the area. It’s clean and everyone is super friendly. It was amazing!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r559905375-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>559905375</t>
+  </si>
+  <si>
+    <t>02/11/2018</t>
+  </si>
+  <si>
+    <t>Really a Hilton??</t>
+  </si>
+  <si>
+    <t>Maids outside woke me two different times with chatter.  Breakfast shut down precisely at 9am with no leeway.  Thermostat did not function correctly.  This did not seem like a Hilton but more like a converted cheap hotel...at $219 a night.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r559898718-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>559898718</t>
+  </si>
+  <si>
+    <t>Quick business stay</t>
+  </si>
+  <si>
+    <t>Stayed here just one night while traveling for work. I was expecting a brand new hotel, but came to find out that it's just a renovated Wingate. Room was definitely showing some wear and tear already, but was spacious and bed was comfortable. Breakfast was typical of these types of hotels and gym was functional.</t>
+  </si>
+  <si>
+    <t>January 2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r557626809-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>557626809</t>
+  </si>
+  <si>
+    <t>01/31/2018</t>
+  </si>
+  <si>
+    <t>Nice hotel, great service.</t>
+  </si>
+  <si>
+    <t>Newly renovated Hotel with excellent service. Fully equipped kitchenette allows flexibility to the persons who need to prepare their own meals. Warm friendly staff, always willing to help. Online Check in and digital key makes arrival and stay a breeze. Close to many shopping areas. Wish there was a gluten free option for breakfast however plenty nuts and dried fruit. Definitely will stay again.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r557458720-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>557458720</t>
+  </si>
+  <si>
+    <t>01/30/2018</t>
+  </si>
+  <si>
+    <t>Staff was Friendly, helpful and great but Breakfast options were disappointing</t>
+  </si>
+  <si>
+    <t>Seriousy look into the Breakfast option. I stayed for more than 2 weeks and everyday SAME menu was available. there was NO change which makes me to STOP having breakfast at Home2Suites.Kitchen includes juts the induction Top instead of Burner Top.MoreShow less</t>
+  </si>
+  <si>
+    <t>Hassel A, Front Office Manager at Home2 Suites by Hilton Miramar Ft. Lauderdale, responded to this reviewResponded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Responded March 30, 2018</t>
+  </si>
+  <si>
+    <t>Seriousy look into the Breakfast option. I stayed for more than 2 weeks and everyday SAME menu was available. there was NO change which makes me to STOP having breakfast at Home2Suites.Kitchen includes juts the induction Top instead of Burner Top.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r556767514-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>556767514</t>
+  </si>
+  <si>
+    <t>01/27/2018</t>
+  </si>
+  <si>
+    <t>Decent hotel, but not enough value for the cost.</t>
+  </si>
+  <si>
+    <t>Check in via the Hilton app wasn't available and it took 5 minutes at the front counter to find my reservation. Staff was friendly but the doors between the adjoining rooms were not very soundproof. Next time I will try a different hotel. MoreShow less</t>
+  </si>
+  <si>
+    <t>Check in via the Hilton app wasn't available and it took 5 minutes at the front counter to find my reservation. Staff was friendly but the doors between the adjoining rooms were not very soundproof. Next time I will try a different hotel. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r552728225-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>552728225</t>
+  </si>
+  <si>
+    <t>01/09/2018</t>
+  </si>
+  <si>
+    <t>Newly renovated</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel the beginning of January 2018 and it had recently just finished complete renovations I understand. The rooms were spacious, clean with lots of amenities. I was impressed that you could ask for a cooktop to cook in the room. The room had a microwave and a huge new refrigerator with bottom freezer. The bed was really comfortable and there was a pull out sofa bed as well. The bathroom was modern with nice shower with good pressure. The room was really well organized.The staff were all very friendly and the lobby was spacious and comfortable with lots of seating. There were a few computers in the lobby to use as well with printers.I actually enjoyed the free breakfeast a lot. I made a waffle and it was delicious and healthy. There were apples, cereal, yogurt, milk, orange, apple and kiwi strawberry juice. There were breakfeast muffins with eggs and bacon or sausage that could be warmed up in the microwave and my son had one that tasted great. There was a selection of bread and bagels. I also had a bagel that was fresh, chewy and delicious. Everything was fresh.The hotel is a bit far from the airport 30 minutes but was reasonable. I would stay here again given the chance.MoreShow less</t>
+  </si>
+  <si>
+    <t>I stayed in this hotel the beginning of January 2018 and it had recently just finished complete renovations I understand. The rooms were spacious, clean with lots of amenities. I was impressed that you could ask for a cooktop to cook in the room. The room had a microwave and a huge new refrigerator with bottom freezer. The bed was really comfortable and there was a pull out sofa bed as well. The bathroom was modern with nice shower with good pressure. The room was really well organized.The staff were all very friendly and the lobby was spacious and comfortable with lots of seating. There were a few computers in the lobby to use as well with printers.I actually enjoyed the free breakfeast a lot. I made a waffle and it was delicious and healthy. There were apples, cereal, yogurt, milk, orange, apple and kiwi strawberry juice. There were breakfeast muffins with eggs and bacon or sausage that could be warmed up in the microwave and my son had one that tasted great. There was a selection of bread and bagels. I also had a bagel that was fresh, chewy and delicious. Everything was fresh.The hotel is a bit far from the airport 30 minutes but was reasonable. I would stay here again given the chance.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r551234946-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>551234946</t>
+  </si>
+  <si>
+    <t>01/03/2018</t>
+  </si>
+  <si>
+    <t>Now a Home 2 Suites by Hilton</t>
+  </si>
+  <si>
+    <t>The renovations at this hotel are finally almost complete from what it appears.  We stayed here in November and while the rooms were nice it was a little unnerving having to go in the side door which was propped open.  This time however, the lobby was completed so we felt much safer.  Rooms are still really nice and spacious and now included some dishes and such as well.  Bed was comfy and like the shade on the window as it lets less light in when you don't want it.  Bathroom could use a hook or two for a robe or hanging cosmetic bag.  Not a fan of the Shampoo and conditioner dispensers on the wall.  Seems unsanitary to me and you never know what is truly going inside.  I prefer to have small bottles that I can tell whether or not they have been opened.  Others may feel differently, but that's my opinion.  Staff was very nice.  Breakfast however could definitely use some help.  It was another thing we didn't like when we stayed in November and hoped with the change to Hilton the breakfast would be better.  Unfortunately not.  So bad we just went out to breakfast the second morning.  The area is crowded - not enough table and chairs.  A high table with 6-8 barstools is right in the middle as well.  Mostly with only 2 people sitting at it.  Seems like a waste to me.  Let larger...The renovations at this hotel are finally almost complete from what it appears.  We stayed here in November and while the rooms were nice it was a little unnerving having to go in the side door which was propped open.  This time however, the lobby was completed so we felt much safer.  Rooms are still really nice and spacious and now included some dishes and such as well.  Bed was comfy and like the shade on the window as it lets less light in when you don't want it.  Bathroom could use a hook or two for a robe or hanging cosmetic bag.  Not a fan of the Shampoo and conditioner dispensers on the wall.  Seems unsanitary to me and you never know what is truly going inside.  I prefer to have small bottles that I can tell whether or not they have been opened.  Others may feel differently, but that's my opinion.  Staff was very nice.  Breakfast however could definitely use some help.  It was another thing we didn't like when we stayed in November and hoped with the change to Hilton the breakfast would be better.  Unfortunately not.  So bad we just went out to breakfast the second morning.  The area is crowded - not enough table and chairs.  A high table with 6-8 barstools is right in the middle as well.  Mostly with only 2 people sitting at it.  Seems like a waste to me.  Let larger parties move tables together if they want.  Many were sitting on the couches in the lobby trying to find space.  The food itself is also not great.  The bagels seemed old and tasted stale even after toasting.  Sandwiches you have to make in the microwave are a bit of a pain.  Only 2 microwaves so constantly having to wait.  No wait for the waffle maker - maybe because it was MultiGrain waffles with Buckwheat!  I didn't see one person making them during both of our stays.  Usually you can get a half way decent breakfast at places that serve breakfast - this one needs help.  The staff at breakfast aren't the friendliest either and don't keep up with stocking items.  Feel like I am bothering them when I asked for something that was out.  Butter was frozen solid!  I mean like a rock!  Couldn't even get the knife to spread it on my stale bagel.  The area of the hotel has many things around it - have to drive though - nothing in walking distance really.  Hard to find the hotel and better signage is needed (we thought this last time as well).  Try to stay in rooms that face the parking lot.  The hotel is right off the expressway - literally.  Last time we heard the traffic but it wasn't bad.  This time our room faced the expressway and the noise was terrible.  They really should have built this a bit further back or faced it differently to minimize the rooms facing the expressway but that can't be changed now.  All in all a nice hotel and would be better if some improvements to breakfast were made.MoreShow less</t>
+  </si>
+  <si>
+    <t>December 2017</t>
+  </si>
+  <si>
+    <t>The renovations at this hotel are finally almost complete from what it appears.  We stayed here in November and while the rooms were nice it was a little unnerving having to go in the side door which was propped open.  This time however, the lobby was completed so we felt much safer.  Rooms are still really nice and spacious and now included some dishes and such as well.  Bed was comfy and like the shade on the window as it lets less light in when you don't want it.  Bathroom could use a hook or two for a robe or hanging cosmetic bag.  Not a fan of the Shampoo and conditioner dispensers on the wall.  Seems unsanitary to me and you never know what is truly going inside.  I prefer to have small bottles that I can tell whether or not they have been opened.  Others may feel differently, but that's my opinion.  Staff was very nice.  Breakfast however could definitely use some help.  It was another thing we didn't like when we stayed in November and hoped with the change to Hilton the breakfast would be better.  Unfortunately not.  So bad we just went out to breakfast the second morning.  The area is crowded - not enough table and chairs.  A high table with 6-8 barstools is right in the middle as well.  Mostly with only 2 people sitting at it.  Seems like a waste to me.  Let larger...The renovations at this hotel are finally almost complete from what it appears.  We stayed here in November and while the rooms were nice it was a little unnerving having to go in the side door which was propped open.  This time however, the lobby was completed so we felt much safer.  Rooms are still really nice and spacious and now included some dishes and such as well.  Bed was comfy and like the shade on the window as it lets less light in when you don't want it.  Bathroom could use a hook or two for a robe or hanging cosmetic bag.  Not a fan of the Shampoo and conditioner dispensers on the wall.  Seems unsanitary to me and you never know what is truly going inside.  I prefer to have small bottles that I can tell whether or not they have been opened.  Others may feel differently, but that's my opinion.  Staff was very nice.  Breakfast however could definitely use some help.  It was another thing we didn't like when we stayed in November and hoped with the change to Hilton the breakfast would be better.  Unfortunately not.  So bad we just went out to breakfast the second morning.  The area is crowded - not enough table and chairs.  A high table with 6-8 barstools is right in the middle as well.  Mostly with only 2 people sitting at it.  Seems like a waste to me.  Let larger parties move tables together if they want.  Many were sitting on the couches in the lobby trying to find space.  The food itself is also not great.  The bagels seemed old and tasted stale even after toasting.  Sandwiches you have to make in the microwave are a bit of a pain.  Only 2 microwaves so constantly having to wait.  No wait for the waffle maker - maybe because it was MultiGrain waffles with Buckwheat!  I didn't see one person making them during both of our stays.  Usually you can get a half way decent breakfast at places that serve breakfast - this one needs help.  The staff at breakfast aren't the friendliest either and don't keep up with stocking items.  Feel like I am bothering them when I asked for something that was out.  Butter was frozen solid!  I mean like a rock!  Couldn't even get the knife to spread it on my stale bagel.  The area of the hotel has many things around it - have to drive though - nothing in walking distance really.  Hard to find the hotel and better signage is needed (we thought this last time as well).  Try to stay in rooms that face the parking lot.  The hotel is right off the expressway - literally.  Last time we heard the traffic but it wasn't bad.  This time our room faced the expressway and the noise was terrible.  They really should have built this a bit further back or faced it differently to minimize the rooms facing the expressway but that can't be changed now.  All in all a nice hotel and would be better if some improvements to breakfast were made.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r550509801-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>550509801</t>
+  </si>
+  <si>
+    <t>12/31/2017</t>
+  </si>
+  <si>
+    <t>VALUE FOR MONEY!</t>
+  </si>
+  <si>
+    <t>Amazingly large comfortable state of the art decorated rooms with full size fridge, dishwasher and microwave, stocked cupboards with dishware and utensils.  Very nice bathroom and amenities.  Easy, friendly check-in and extended check-out with no difficulty. While it is obviously in final stages of construction, it was extremely hard to find and signage was lacking.  We reserved it as a Wingate/Wyndham and were surprised to find the name Hilton2 on the front door.  For the rate, it was a fantastic location and room.MoreShow less</t>
+  </si>
+  <si>
+    <t>Amazingly large comfortable state of the art decorated rooms with full size fridge, dishwasher and microwave, stocked cupboards with dishware and utensils.  Very nice bathroom and amenities.  Easy, friendly check-in and extended check-out with no difficulty. While it is obviously in final stages of construction, it was extremely hard to find and signage was lacking.  We reserved it as a Wingate/Wyndham and were surprised to find the name Hilton2 on the front door.  For the rate, it was a fantastic location and room.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g34454-d226195-r553300904-Home2_Suites_by_Hilton_Miramar_Ft_Lauderdale-Miramar_Broward_County_Florida.html</t>
+  </si>
+  <si>
+    <t>553300904</t>
+  </si>
+  <si>
+    <t>New Hotel!</t>
+  </si>
+  <si>
+    <t>Was another brand and recently went a major overhaul. Everything is brand new. Amazing hotel! Spacious, clean, friendly staff. Great breakfast, super fast internet. Conveniently located. What more could you ask for?MoreShow less</t>
+  </si>
+  <si>
+    <t>Was another brand and recently went a major overhaul. Everything is brand new. Amazing hotel! Spacious, clean, friendly staff. Great breakfast, super fast internet. Conveniently located. What more could you ask for?More</t>
+  </si>
   <si>
     <t>STR#</t>
   </si>
@@ -73,81 +695,6 @@
   </si>
   <si>
     <t>https://www.orbitz.com/Fort-Lauderdale-Hotels-Home2-Suites-By-Hilton-Miramar-FT-Lauderdale.h790803.Hotel-Information</t>
-  </si>
-  <si>
-    <t>STR</t>
-  </si>
-  <si>
-    <t>reviewer_ID</t>
-  </si>
-  <si>
-    <t>reviewer_name</t>
-  </si>
-  <si>
-    <t>Review_ID</t>
-  </si>
-  <si>
-    <t>Date_of_scraping</t>
-  </si>
-  <si>
-    <t>ReviewURL</t>
-  </si>
-  <si>
-    <t>Tripadvisor_gcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_dcode</t>
-  </si>
-  <si>
-    <t>Tripadvisor_rcode</t>
-  </si>
-  <si>
-    <t>review_date</t>
-  </si>
-  <si>
-    <t>review_title</t>
-  </si>
-  <si>
-    <t>review_content</t>
-  </si>
-  <si>
-    <t>review_rating</t>
-  </si>
-  <si>
-    <t>trip_month</t>
-  </si>
-  <si>
-    <t>trip_purpose</t>
-  </si>
-  <si>
-    <t>value</t>
-  </si>
-  <si>
-    <t>rooms</t>
-  </si>
-  <si>
-    <t>Location</t>
-  </si>
-  <si>
-    <t>Cleanliness</t>
-  </si>
-  <si>
-    <t>Sleep Quality</t>
-  </si>
-  <si>
-    <t>Service</t>
-  </si>
-  <si>
-    <t>Picture(yes=1)</t>
-  </si>
-  <si>
-    <t>respondent</t>
-  </si>
-  <si>
-    <t>response_date</t>
-  </si>
-  <si>
-    <t>response_text</t>
   </si>
 </sst>
 </file>
@@ -521,37 +1068,1869 @@
       <c r="J1" t="s">
         <v>9</v>
       </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>41563</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>25</v>
+      </c>
+      <c r="F2" t="s">
+        <v>26</v>
+      </c>
+      <c r="G2" t="s">
+        <v>27</v>
+      </c>
+      <c r="H2" t="s">
+        <v>28</v>
+      </c>
+      <c r="I2" t="s">
+        <v>29</v>
+      </c>
+      <c r="J2" t="s">
+        <v>30</v>
+      </c>
+      <c r="K2" t="s">
+        <v>31</v>
+      </c>
+      <c r="L2" t="s">
+        <v>32</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>33</v>
+      </c>
+      <c r="O2" t="s">
+        <v>34</v>
+      </c>
+      <c r="P2" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q2" t="n">
+        <v>5</v>
+      </c>
+      <c r="R2" t="n">
+        <v>5</v>
+      </c>
+      <c r="S2" t="n">
+        <v>4</v>
+      </c>
+      <c r="T2" t="s"/>
+      <c r="U2" t="n">
+        <v>5</v>
+      </c>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F3" t="s">
+        <v>35</v>
+      </c>
+      <c r="G3" t="s">
+        <v>27</v>
+      </c>
+      <c r="H3" t="s">
+        <v>28</v>
+      </c>
+      <c r="I3" t="s">
+        <v>36</v>
+      </c>
+      <c r="J3" t="s">
+        <v>37</v>
+      </c>
+      <c r="K3" t="s">
+        <v>38</v>
+      </c>
+      <c r="L3" t="s">
+        <v>39</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5</v>
+      </c>
+      <c r="N3" t="s"/>
+      <c r="O3" t="s"/>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="s"/>
+      <c r="R3" t="s"/>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="s"/>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>25</v>
+      </c>
+      <c r="F4" t="s">
+        <v>40</v>
+      </c>
+      <c r="G4" t="s">
+        <v>27</v>
+      </c>
+      <c r="H4" t="s">
+        <v>28</v>
+      </c>
+      <c r="I4" t="s">
+        <v>41</v>
+      </c>
+      <c r="J4" t="s">
+        <v>42</v>
+      </c>
+      <c r="K4" t="s">
+        <v>43</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>45</v>
+      </c>
+      <c r="O4" t="s">
+        <v>46</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="s"/>
+      <c r="T4" t="s"/>
+      <c r="U4" t="s"/>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>25</v>
+      </c>
+      <c r="F5" t="s">
+        <v>47</v>
+      </c>
+      <c r="G5" t="s">
+        <v>27</v>
+      </c>
+      <c r="H5" t="s">
+        <v>28</v>
+      </c>
+      <c r="I5" t="s">
+        <v>48</v>
+      </c>
+      <c r="J5" t="s">
+        <v>49</v>
+      </c>
+      <c r="K5" t="s">
+        <v>50</v>
+      </c>
+      <c r="L5" t="s">
+        <v>51</v>
+      </c>
+      <c r="M5" t="n">
+        <v>5</v>
+      </c>
+      <c r="N5" t="s">
+        <v>52</v>
+      </c>
+      <c r="O5" t="s">
+        <v>46</v>
+      </c>
+      <c r="P5" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>5</v>
+      </c>
+      <c r="R5" t="n">
+        <v>5</v>
+      </c>
+      <c r="S5" t="n">
+        <v>5</v>
+      </c>
+      <c r="T5" t="s"/>
+      <c r="U5" t="n">
+        <v>5</v>
+      </c>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>25</v>
+      </c>
+      <c r="F6" t="s">
+        <v>53</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>28</v>
+      </c>
+      <c r="I6" t="s">
+        <v>54</v>
+      </c>
+      <c r="J6" t="s">
+        <v>55</v>
+      </c>
+      <c r="K6" t="s">
+        <v>56</v>
+      </c>
+      <c r="L6" t="s">
+        <v>57</v>
+      </c>
+      <c r="M6" t="n">
+        <v>5</v>
+      </c>
+      <c r="N6" t="s">
+        <v>52</v>
+      </c>
+      <c r="O6" t="s">
+        <v>58</v>
+      </c>
+      <c r="P6" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>5</v>
+      </c>
+      <c r="R6" t="n">
+        <v>5</v>
+      </c>
+      <c r="S6" t="n">
+        <v>5</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>5</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>25</v>
+      </c>
+      <c r="F7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G7" t="s">
+        <v>27</v>
+      </c>
+      <c r="H7" t="s">
+        <v>28</v>
+      </c>
+      <c r="I7" t="s">
+        <v>60</v>
+      </c>
+      <c r="J7" t="s">
+        <v>61</v>
+      </c>
+      <c r="K7" t="s">
+        <v>62</v>
+      </c>
+      <c r="L7" t="s">
+        <v>63</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>64</v>
+      </c>
+      <c r="O7" t="s">
+        <v>58</v>
+      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>25</v>
+      </c>
+      <c r="F8" t="s">
+        <v>65</v>
+      </c>
+      <c r="G8" t="s">
+        <v>27</v>
+      </c>
+      <c r="H8" t="s">
+        <v>28</v>
+      </c>
+      <c r="I8" t="s">
+        <v>66</v>
+      </c>
+      <c r="J8" t="s">
+        <v>67</v>
+      </c>
+      <c r="K8" t="s">
+        <v>68</v>
+      </c>
+      <c r="L8" t="s">
+        <v>69</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>64</v>
+      </c>
+      <c r="O8" t="s">
+        <v>46</v>
+      </c>
+      <c r="P8" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q8" t="n">
+        <v>4</v>
+      </c>
+      <c r="R8" t="n">
+        <v>4</v>
+      </c>
+      <c r="S8" t="n">
+        <v>5</v>
+      </c>
+      <c r="T8" t="s"/>
+      <c r="U8" t="n">
+        <v>4</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>25</v>
+      </c>
+      <c r="F9" t="s">
+        <v>70</v>
+      </c>
+      <c r="G9" t="s">
+        <v>27</v>
+      </c>
+      <c r="H9" t="s">
+        <v>28</v>
+      </c>
+      <c r="I9" t="s">
+        <v>71</v>
+      </c>
+      <c r="J9" t="s">
+        <v>72</v>
+      </c>
+      <c r="K9" t="s">
+        <v>73</v>
+      </c>
+      <c r="L9" t="s">
+        <v>74</v>
+      </c>
+      <c r="M9" t="n">
+        <v>4</v>
+      </c>
+      <c r="N9" t="s">
+        <v>64</v>
+      </c>
+      <c r="O9" t="s">
+        <v>58</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>4</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G10" t="s">
+        <v>27</v>
+      </c>
+      <c r="H10" t="s">
+        <v>28</v>
+      </c>
+      <c r="I10" t="s">
+        <v>76</v>
+      </c>
+      <c r="J10" t="s">
+        <v>77</v>
+      </c>
+      <c r="K10" t="s">
+        <v>78</v>
+      </c>
+      <c r="L10" t="s">
+        <v>79</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s"/>
+      <c r="O10" t="s"/>
+      <c r="P10" t="s"/>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
+      <c r="S10" t="s"/>
+      <c r="T10" t="s"/>
+      <c r="U10" t="s"/>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
         <v>10</v>
       </c>
-      <c r="C2" t="s">
+      <c r="E11" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" t="s">
+        <v>80</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="H11" t="s">
+        <v>28</v>
+      </c>
+      <c r="I11" t="s">
+        <v>81</v>
+      </c>
+      <c r="J11" t="s">
+        <v>82</v>
+      </c>
+      <c r="K11" t="s">
+        <v>83</v>
+      </c>
+      <c r="L11" t="s">
+        <v>84</v>
+      </c>
+      <c r="M11" t="n">
+        <v>5</v>
+      </c>
+      <c r="N11" t="s">
+        <v>85</v>
+      </c>
+      <c r="O11" t="s">
+        <v>58</v>
+      </c>
+      <c r="P11" t="s"/>
+      <c r="Q11" t="s"/>
+      <c r="R11" t="s"/>
+      <c r="S11" t="s"/>
+      <c r="T11" t="s"/>
+      <c r="U11" t="s"/>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
         <v>11</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" t="s">
+        <v>87</v>
+      </c>
+      <c r="G12" t="s">
+        <v>27</v>
+      </c>
+      <c r="H12" t="s">
+        <v>28</v>
+      </c>
+      <c r="I12" t="s">
+        <v>88</v>
+      </c>
+      <c r="J12" t="s">
+        <v>89</v>
+      </c>
+      <c r="K12" t="s">
+        <v>90</v>
+      </c>
+      <c r="L12" t="s">
+        <v>91</v>
+      </c>
+      <c r="M12" t="n">
+        <v>1</v>
+      </c>
+      <c r="N12" t="s">
+        <v>85</v>
+      </c>
+      <c r="O12" t="s">
+        <v>92</v>
+      </c>
+      <c r="P12" t="s"/>
+      <c r="Q12" t="s"/>
+      <c r="R12" t="s"/>
+      <c r="S12" t="s"/>
+      <c r="T12" t="s"/>
+      <c r="U12" t="s"/>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s">
+        <v>93</v>
+      </c>
+      <c r="X12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Y12" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" t="s">
+        <v>96</v>
+      </c>
+      <c r="G13" t="s">
+        <v>27</v>
+      </c>
+      <c r="H13" t="s">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s">
+        <v>97</v>
+      </c>
+      <c r="J13" t="s">
+        <v>98</v>
+      </c>
+      <c r="K13" t="s">
+        <v>99</v>
+      </c>
+      <c r="L13" t="s">
+        <v>100</v>
+      </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>101</v>
+      </c>
+      <c r="O13" t="s">
+        <v>58</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="s"/>
+      <c r="R13" t="n">
+        <v>4</v>
+      </c>
+      <c r="S13" t="s"/>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s">
+        <v>102</v>
+      </c>
+      <c r="X13" t="s">
+        <v>103</v>
+      </c>
+      <c r="Y13" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
         <v>13</v>
       </c>
-      <c r="F2" t="s">
+      <c r="E14" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" t="s">
+        <v>105</v>
+      </c>
+      <c r="G14" t="s">
+        <v>27</v>
+      </c>
+      <c r="H14" t="s">
+        <v>28</v>
+      </c>
+      <c r="I14" t="s">
+        <v>106</v>
+      </c>
+      <c r="J14" t="s">
+        <v>107</v>
+      </c>
+      <c r="K14" t="s">
+        <v>108</v>
+      </c>
+      <c r="L14" t="s">
+        <v>109</v>
+      </c>
+      <c r="M14" t="n">
+        <v>2</v>
+      </c>
+      <c r="N14" t="s">
+        <v>110</v>
+      </c>
+      <c r="O14" t="s">
+        <v>111</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
+      <c r="T14" t="s"/>
+      <c r="U14" t="s"/>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
         <v>14</v>
       </c>
-      <c r="G2" t="s">
+      <c r="E15" t="s">
+        <v>25</v>
+      </c>
+      <c r="F15" t="s">
+        <v>113</v>
+      </c>
+      <c r="G15" t="s">
+        <v>27</v>
+      </c>
+      <c r="H15" t="s">
+        <v>28</v>
+      </c>
+      <c r="I15" t="s">
+        <v>114</v>
+      </c>
+      <c r="J15" t="s">
+        <v>115</v>
+      </c>
+      <c r="K15" t="s">
+        <v>116</v>
+      </c>
+      <c r="L15" t="s">
+        <v>117</v>
+      </c>
+      <c r="M15" t="n">
+        <v>5</v>
+      </c>
+      <c r="N15" t="s">
+        <v>101</v>
+      </c>
+      <c r="O15" t="s">
+        <v>46</v>
+      </c>
+      <c r="P15" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>5</v>
+      </c>
+      <c r="R15" t="n">
+        <v>5</v>
+      </c>
+      <c r="S15" t="n">
+        <v>5</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>5</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
         <v>15</v>
       </c>
-      <c r="H2" t="s">
+      <c r="E16" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" t="s">
+        <v>118</v>
+      </c>
+      <c r="G16" t="s">
+        <v>27</v>
+      </c>
+      <c r="H16" t="s">
+        <v>28</v>
+      </c>
+      <c r="I16" t="s">
+        <v>119</v>
+      </c>
+      <c r="J16" t="s">
+        <v>120</v>
+      </c>
+      <c r="K16" t="s">
+        <v>121</v>
+      </c>
+      <c r="L16" t="s">
+        <v>122</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>123</v>
+      </c>
+      <c r="O16" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>4</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
         <v>16</v>
       </c>
-      <c r="I2" t="s">
+      <c r="E17" t="s">
+        <v>25</v>
+      </c>
+      <c r="F17" t="s">
+        <v>124</v>
+      </c>
+      <c r="G17" t="s">
+        <v>27</v>
+      </c>
+      <c r="H17" t="s">
+        <v>28</v>
+      </c>
+      <c r="I17" t="s">
+        <v>125</v>
+      </c>
+      <c r="J17" t="s">
+        <v>126</v>
+      </c>
+      <c r="K17" t="s">
+        <v>127</v>
+      </c>
+      <c r="L17" t="s">
+        <v>128</v>
+      </c>
+      <c r="M17" t="n">
+        <v>4</v>
+      </c>
+      <c r="N17" t="s">
+        <v>129</v>
+      </c>
+      <c r="O17" t="s">
+        <v>58</v>
+      </c>
+      <c r="P17" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>4</v>
+      </c>
+      <c r="R17" t="n">
+        <v>4</v>
+      </c>
+      <c r="S17" t="n">
+        <v>4</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
         <v>17</v>
       </c>
-      <c r="J2" t="s">
+      <c r="E18" t="s">
+        <v>25</v>
+      </c>
+      <c r="F18" t="s">
+        <v>131</v>
+      </c>
+      <c r="G18" t="s">
+        <v>27</v>
+      </c>
+      <c r="H18" t="s">
+        <v>28</v>
+      </c>
+      <c r="I18" t="s">
+        <v>132</v>
+      </c>
+      <c r="J18" t="s">
+        <v>133</v>
+      </c>
+      <c r="K18" t="s">
+        <v>134</v>
+      </c>
+      <c r="L18" t="s">
+        <v>135</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>129</v>
+      </c>
+      <c r="O18" t="s">
+        <v>34</v>
+      </c>
+      <c r="P18" t="s"/>
+      <c r="Q18" t="s"/>
+      <c r="R18" t="s"/>
+      <c r="S18" t="s"/>
+      <c r="T18" t="s"/>
+      <c r="U18" t="s"/>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
         <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F19" t="s">
+        <v>136</v>
+      </c>
+      <c r="G19" t="s">
+        <v>27</v>
+      </c>
+      <c r="H19" t="s">
+        <v>28</v>
+      </c>
+      <c r="I19" t="s">
+        <v>137</v>
+      </c>
+      <c r="J19" t="s">
+        <v>138</v>
+      </c>
+      <c r="K19" t="s">
+        <v>139</v>
+      </c>
+      <c r="L19" t="s">
+        <v>140</v>
+      </c>
+      <c r="M19" t="n">
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>141</v>
+      </c>
+      <c r="O19" t="s">
+        <v>46</v>
+      </c>
+      <c r="P19" t="s"/>
+      <c r="Q19" t="s"/>
+      <c r="R19" t="s"/>
+      <c r="S19" t="s"/>
+      <c r="T19" t="s"/>
+      <c r="U19" t="s"/>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>25</v>
+      </c>
+      <c r="F20" t="s">
+        <v>143</v>
+      </c>
+      <c r="G20" t="s">
+        <v>27</v>
+      </c>
+      <c r="H20" t="s">
+        <v>28</v>
+      </c>
+      <c r="I20" t="s">
+        <v>144</v>
+      </c>
+      <c r="J20" t="s">
+        <v>145</v>
+      </c>
+      <c r="K20" t="s">
+        <v>146</v>
+      </c>
+      <c r="L20" t="s">
+        <v>147</v>
+      </c>
+      <c r="M20" t="n">
+        <v>4</v>
+      </c>
+      <c r="N20" t="s">
+        <v>141</v>
+      </c>
+      <c r="O20" t="s">
+        <v>92</v>
+      </c>
+      <c r="P20" t="s"/>
+      <c r="Q20" t="s"/>
+      <c r="R20" t="s"/>
+      <c r="S20" t="s"/>
+      <c r="T20" t="s"/>
+      <c r="U20" t="s"/>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>25</v>
+      </c>
+      <c r="F21" t="s">
+        <v>148</v>
+      </c>
+      <c r="G21" t="s">
+        <v>27</v>
+      </c>
+      <c r="H21" t="s">
+        <v>28</v>
+      </c>
+      <c r="I21" t="s">
+        <v>149</v>
+      </c>
+      <c r="J21" t="s">
+        <v>150</v>
+      </c>
+      <c r="K21" t="s">
+        <v>151</v>
+      </c>
+      <c r="L21" t="s">
+        <v>152</v>
+      </c>
+      <c r="M21" t="n">
+        <v>5</v>
+      </c>
+      <c r="N21" t="s">
+        <v>141</v>
+      </c>
+      <c r="O21" t="s">
+        <v>58</v>
+      </c>
+      <c r="P21" t="s"/>
+      <c r="Q21" t="s"/>
+      <c r="R21" t="s"/>
+      <c r="S21" t="s"/>
+      <c r="T21" t="s"/>
+      <c r="U21" t="s"/>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>25</v>
+      </c>
+      <c r="F22" t="s">
+        <v>153</v>
+      </c>
+      <c r="G22" t="s">
+        <v>27</v>
+      </c>
+      <c r="H22" t="s">
+        <v>28</v>
+      </c>
+      <c r="I22" t="s">
+        <v>154</v>
+      </c>
+      <c r="J22" t="s">
+        <v>155</v>
+      </c>
+      <c r="K22" t="s">
+        <v>156</v>
+      </c>
+      <c r="L22" t="s">
+        <v>157</v>
+      </c>
+      <c r="M22" t="n">
+        <v>3</v>
+      </c>
+      <c r="N22" t="s">
+        <v>45</v>
+      </c>
+      <c r="O22" t="s">
+        <v>46</v>
+      </c>
+      <c r="P22" t="n">
+        <v>2</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>3</v>
+      </c>
+      <c r="R22" t="n">
+        <v>4</v>
+      </c>
+      <c r="S22" t="n">
+        <v>3</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>4</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>25</v>
+      </c>
+      <c r="F23" t="s">
+        <v>158</v>
+      </c>
+      <c r="G23" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" t="s">
+        <v>28</v>
+      </c>
+      <c r="I23" t="s">
+        <v>159</v>
+      </c>
+      <c r="J23" t="s">
+        <v>155</v>
+      </c>
+      <c r="K23" t="s">
+        <v>160</v>
+      </c>
+      <c r="L23" t="s">
+        <v>161</v>
+      </c>
+      <c r="M23" t="n">
+        <v>3</v>
+      </c>
+      <c r="N23" t="s">
+        <v>162</v>
+      </c>
+      <c r="O23" t="s">
+        <v>46</v>
+      </c>
+      <c r="P23" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q23" t="s"/>
+      <c r="R23" t="s"/>
+      <c r="S23" t="s"/>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>3</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>25</v>
+      </c>
+      <c r="F24" t="s">
+        <v>163</v>
+      </c>
+      <c r="G24" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" t="s">
+        <v>28</v>
+      </c>
+      <c r="I24" t="s">
+        <v>164</v>
+      </c>
+      <c r="J24" t="s">
+        <v>165</v>
+      </c>
+      <c r="K24" t="s">
+        <v>166</v>
+      </c>
+      <c r="L24" t="s">
+        <v>167</v>
+      </c>
+      <c r="M24" t="n">
+        <v>5</v>
+      </c>
+      <c r="N24" t="s">
+        <v>162</v>
+      </c>
+      <c r="O24" t="s">
+        <v>34</v>
+      </c>
+      <c r="P24" t="s"/>
+      <c r="Q24" t="s"/>
+      <c r="R24" t="s"/>
+      <c r="S24" t="s"/>
+      <c r="T24" t="s"/>
+      <c r="U24" t="s"/>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>25</v>
+      </c>
+      <c r="F25" t="s">
+        <v>168</v>
+      </c>
+      <c r="G25" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" t="s">
+        <v>28</v>
+      </c>
+      <c r="I25" t="s">
+        <v>169</v>
+      </c>
+      <c r="J25" t="s">
+        <v>170</v>
+      </c>
+      <c r="K25" t="s">
+        <v>171</v>
+      </c>
+      <c r="L25" t="s">
+        <v>172</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s">
+        <v>162</v>
+      </c>
+      <c r="O25" t="s">
+        <v>46</v>
+      </c>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>5</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>5</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s">
+        <v>173</v>
+      </c>
+      <c r="X25" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y25" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>25</v>
+      </c>
+      <c r="F26" t="s">
+        <v>176</v>
+      </c>
+      <c r="G26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H26" t="s">
+        <v>28</v>
+      </c>
+      <c r="I26" t="s">
+        <v>177</v>
+      </c>
+      <c r="J26" t="s">
+        <v>178</v>
+      </c>
+      <c r="K26" t="s">
+        <v>179</v>
+      </c>
+      <c r="L26" t="s">
+        <v>180</v>
+      </c>
+      <c r="M26" t="n">
+        <v>3</v>
+      </c>
+      <c r="N26" t="s">
+        <v>162</v>
+      </c>
+      <c r="O26" t="s">
+        <v>46</v>
+      </c>
+      <c r="P26" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>3</v>
+      </c>
+      <c r="R26" t="n">
+        <v>2</v>
+      </c>
+      <c r="S26" t="n">
+        <v>3</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>4</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s">
+        <v>173</v>
+      </c>
+      <c r="X26" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y26" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>25</v>
+      </c>
+      <c r="F27" t="s">
+        <v>182</v>
+      </c>
+      <c r="G27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H27" t="s">
+        <v>28</v>
+      </c>
+      <c r="I27" t="s">
+        <v>183</v>
+      </c>
+      <c r="J27" t="s">
+        <v>184</v>
+      </c>
+      <c r="K27" t="s">
+        <v>185</v>
+      </c>
+      <c r="L27" t="s">
+        <v>186</v>
+      </c>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>162</v>
+      </c>
+      <c r="O27" t="s">
+        <v>58</v>
+      </c>
+      <c r="P27" t="s"/>
+      <c r="Q27" t="s"/>
+      <c r="R27" t="n">
+        <v>4</v>
+      </c>
+      <c r="S27" t="s"/>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s">
+        <v>173</v>
+      </c>
+      <c r="X27" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y27" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>25</v>
+      </c>
+      <c r="F28" t="s">
+        <v>188</v>
+      </c>
+      <c r="G28" t="s">
+        <v>27</v>
+      </c>
+      <c r="H28" t="s">
+        <v>28</v>
+      </c>
+      <c r="I28" t="s">
+        <v>189</v>
+      </c>
+      <c r="J28" t="s">
+        <v>190</v>
+      </c>
+      <c r="K28" t="s">
+        <v>191</v>
+      </c>
+      <c r="L28" t="s">
+        <v>192</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>193</v>
+      </c>
+      <c r="O28" t="s">
+        <v>92</v>
+      </c>
+      <c r="P28" t="s"/>
+      <c r="Q28" t="s"/>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="s"/>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>4</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s">
+        <v>173</v>
+      </c>
+      <c r="X28" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y28" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>25</v>
+      </c>
+      <c r="F29" t="s">
+        <v>195</v>
+      </c>
+      <c r="G29" t="s">
+        <v>27</v>
+      </c>
+      <c r="H29" t="s">
+        <v>28</v>
+      </c>
+      <c r="I29" t="s">
+        <v>196</v>
+      </c>
+      <c r="J29" t="s">
+        <v>197</v>
+      </c>
+      <c r="K29" t="s">
+        <v>198</v>
+      </c>
+      <c r="L29" t="s">
+        <v>199</v>
+      </c>
+      <c r="M29" t="n">
+        <v>4</v>
+      </c>
+      <c r="N29" t="s">
+        <v>193</v>
+      </c>
+      <c r="O29" t="s">
+        <v>111</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="s"/>
+      <c r="S29" t="s"/>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>4</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s">
+        <v>173</v>
+      </c>
+      <c r="X29" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y29" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>25</v>
+      </c>
+      <c r="F30" t="s">
+        <v>201</v>
+      </c>
+      <c r="G30" t="s">
+        <v>27</v>
+      </c>
+      <c r="H30" t="s">
+        <v>28</v>
+      </c>
+      <c r="I30" t="s">
+        <v>202</v>
+      </c>
+      <c r="J30" t="s">
+        <v>197</v>
+      </c>
+      <c r="K30" t="s">
+        <v>203</v>
+      </c>
+      <c r="L30" t="s">
+        <v>204</v>
+      </c>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>193</v>
+      </c>
+      <c r="O30" t="s">
+        <v>46</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>5</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>5</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s">
+        <v>173</v>
+      </c>
+      <c r="X30" t="s">
+        <v>174</v>
+      </c>
+      <c r="Y30" t="s">
+        <v>205</v>
       </c>
     </row>
   </sheetData>
@@ -573,79 +2952,66 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s">
-        <v>19</v>
+        <v>206</v>
       </c>
       <c r="B1" t="s">
-        <v>20</v>
+        <v>207</v>
       </c>
       <c r="C1" t="s">
-        <v>21</v>
+        <v>208</v>
       </c>
       <c r="D1" t="s">
-        <v>22</v>
+        <v>209</v>
       </c>
       <c r="E1" t="s">
-        <v>23</v>
+        <v>210</v>
       </c>
       <c r="F1" t="s">
-        <v>24</v>
+        <v>211</v>
       </c>
       <c r="G1" t="s">
-        <v>25</v>
+        <v>212</v>
       </c>
       <c r="H1" t="s">
-        <v>26</v>
+        <v>213</v>
       </c>
       <c r="I1" t="s">
-        <v>27</v>
+        <v>214</v>
       </c>
       <c r="J1" t="s">
-        <v>28</v>
-      </c>
-      <c r="K1" t="s">
-        <v>29</v>
-      </c>
-      <c r="L1" t="s">
-        <v>30</v>
-      </c>
-      <c r="M1" t="s">
-        <v>31</v>
-      </c>
-      <c r="N1" t="s">
-        <v>32</v>
-      </c>
-      <c r="O1" t="s">
-        <v>33</v>
-      </c>
-      <c r="P1" t="s">
-        <v>34</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>35</v>
-      </c>
-      <c r="R1" t="s">
-        <v>36</v>
-      </c>
-      <c r="S1" t="s">
-        <v>37</v>
-      </c>
-      <c r="T1" t="s">
-        <v>38</v>
-      </c>
-      <c r="U1" t="s">
-        <v>39</v>
-      </c>
-      <c r="V1" t="s">
-        <v>40</v>
-      </c>
-      <c r="W1" t="s">
-        <v>41</v>
-      </c>
-      <c r="X1" t="s">
-        <v>42</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>43</v>
+        <v>215</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>41563</v>
+      </c>
+      <c r="B2" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" t="s">
+        <v>217</v>
+      </c>
+      <c r="D2" t="s">
+        <v>218</v>
+      </c>
+      <c r="E2" t="s">
+        <v>219</v>
+      </c>
+      <c r="F2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G2" t="s">
+        <v>221</v>
+      </c>
+      <c r="H2" t="s">
+        <v>222</v>
+      </c>
+      <c r="I2" t="s">
+        <v>223</v>
+      </c>
+      <c r="J2" t="s">
+        <v>224</v>
       </c>
     </row>
   </sheetData>
